--- a/data/trans_orig/P1497-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1497-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3005F430-1F5E-45F8-823A-850314874458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6C7606D-F630-4D7B-AE1F-EB1B1EDE5BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{474BDA25-F1EC-4218-ADBA-F05CB3DDCA1A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{173F47AA-9680-4F93-8382-BEE469DCC93D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="137">
   <si>
     <t>Población con diagnóstico de otra enfermedad 1 en 2012 (Tasa respuesta: 5,07%)</t>
   </si>
@@ -250,19 +250,19 @@
     <t>14,75%</t>
   </si>
   <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
   </si>
   <si>
     <t>16,87%</t>
   </si>
   <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
   </si>
   <si>
     <t>16,03%</t>
@@ -271,31 +271,31 @@
     <t>14,45%</t>
   </si>
   <si>
-    <t>17,81%</t>
+    <t>17,84%</t>
   </si>
   <si>
     <t>85,25%</t>
   </si>
   <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
   </si>
   <si>
     <t>83,13%</t>
   </si>
   <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
   </si>
   <si>
     <t>83,97%</t>
   </si>
   <si>
-    <t>82,19%</t>
+    <t>82,16%</t>
   </si>
   <si>
     <t>85,55%</t>
@@ -304,58 +304,58 @@
     <t>7,83%</t>
   </si>
   <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
   </si>
   <si>
     <t>8,05%</t>
   </si>
   <si>
-    <t>9,15%</t>
+    <t>6,68%</t>
   </si>
   <si>
     <t>7,94%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
   </si>
   <si>
     <t>92,17%</t>
   </si>
   <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
   </si>
   <si>
     <t>91,95%</t>
   </si>
   <si>
-    <t>90,85%</t>
+    <t>93,32%</t>
   </si>
   <si>
     <t>92,06%</t>
   </si>
   <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
   </si>
   <si>
     <t>6,54%</t>
   </si>
   <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
   </si>
   <si>
     <t>8,0%</t>
@@ -364,31 +364,31 @@
     <t>6,38%</t>
   </si>
   <si>
-    <t>10,33%</t>
+    <t>10,11%</t>
   </si>
   <si>
     <t>7,29%</t>
   </si>
   <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
   </si>
   <si>
     <t>93,46%</t>
   </si>
   <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
   </si>
   <si>
     <t>92,0%</t>
   </si>
   <si>
-    <t>89,67%</t>
+    <t>89,89%</t>
   </si>
   <si>
     <t>93,62%</t>
@@ -397,64 +397,58 @@
     <t>92,71%</t>
   </si>
   <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
   </si>
   <si>
     <t>8,68%</t>
   </si>
   <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
+    <t>9,67%</t>
   </si>
   <si>
     <t>9,98%</t>
   </si>
   <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
   </si>
   <si>
     <t>9,37%</t>
   </si>
   <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
   </si>
   <si>
     <t>91,32%</t>
   </si>
   <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
+    <t>90,33%</t>
   </si>
   <si>
     <t>90,02%</t>
   </si>
   <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
   </si>
   <si>
     <t>90,63%</t>
   </si>
   <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
   </si>
 </sst>
 </file>
@@ -866,7 +860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF2C62A-A2C2-4F54-8375-5349D4D1F08C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8825B123-B73E-4118-AC11-1F6B6B4D84CE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1617,7 +1611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A008CFA0-C857-4B24-AB5C-4A88490B4623}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D8FC76-6B31-41D9-AD0A-49FED73690B6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2368,7 +2362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D985EA7-9C88-4185-A93C-18DF5F101BE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2953315C-9229-43B1-9A85-54064F9BA88D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2665,10 +2659,10 @@
         <v>90</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M7" s="7">
         <v>438</v>
@@ -2716,10 +2710,10 @@
         <v>98</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M8" s="7">
         <v>4469</v>
@@ -2960,10 +2954,10 @@
         <v>121</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H13" s="7">
         <v>600</v>
@@ -2972,13 +2966,13 @@
         <v>378579</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M13" s="7">
         <v>929</v>
@@ -2987,13 +2981,13 @@
         <v>671372</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,28 +3002,28 @@
         <v>3081345</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="H14" s="7">
         <v>4745</v>
       </c>
       <c r="I14" s="7">
-        <v>3415939</v>
+        <v>3415938</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M14" s="7">
         <v>7777</v>
@@ -3038,13 +3032,13 @@
         <v>6497284</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3071,7 +3065,7 @@
         <v>5345</v>
       </c>
       <c r="I15" s="7">
-        <v>3794518</v>
+        <v>3794517</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>

--- a/data/trans_orig/P1497-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1497-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6C7606D-F630-4D7B-AE1F-EB1B1EDE5BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F10FA8DB-B5D3-43CF-84AF-3CCE2A3A629A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{173F47AA-9680-4F93-8382-BEE469DCC93D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1B41974E-3B0E-4281-B07C-B7F6D38D4500}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -169,7 +169,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población con diagnóstico de otra enfermedad 1 en 2015 (Tasa respuesta: 6,36%)</t>
+    <t>Población con diagnóstico de otra enfermedad 1 en 2016 (Tasa respuesta: 6,36%)</t>
   </si>
   <si>
     <t>95,56%</t>
@@ -860,7 +860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8825B123-B73E-4118-AC11-1F6B6B4D84CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9856C5B5-6D80-423F-97C8-081A7626591B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1611,7 +1611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D8FC76-6B31-41D9-AD0A-49FED73690B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBCCC055-BD18-48AC-A9DD-1E31FE4E5F74}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2362,7 +2362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2953315C-9229-43B1-9A85-54064F9BA88D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2C965C-1F83-4174-A045-6CD4DC4EE2F3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
